--- a/src/test/resources/DataEngine.xlsx
+++ b/src/test/resources/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Description</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Firefox</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
@@ -626,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,8 +690,8 @@
         <v>2</v>
       </c>
       <c r="G2" s="3" t="str">
-        <f>'Test Data'!D2</f>
-        <v>Firefox</v>
+        <f>'Test Data'!D3</f>
+        <v>Chrome</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
@@ -785,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,14 +839,16 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>

--- a/src/test/resources/DataEngine.xlsx
+++ b/src/test/resources/DataEngine.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="4440" yWindow="1875" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
-    <sheet name="Test Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Settings" sheetId="4" r:id="rId4"/>
+    <sheet name="Settings" sheetId="4" r:id="rId3"/>
+    <sheet name="Test Properties" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Action_Keywords">Settings!$D$2:$D$8</definedName>
-    <definedName name="Home_Page">Settings!$B$2:$B$8</definedName>
-    <definedName name="Login_Page">Settings!$C$2:$C$8</definedName>
-    <definedName name="Page_Name">Settings!$A$2:$A$8</definedName>
+    <definedName name="Action_Keywords">Settings!$D$2:$D$9</definedName>
+    <definedName name="Home_Page">Settings!$B$2:$B$9</definedName>
+    <definedName name="Login_Page">Settings!$C$2:$C$9</definedName>
+    <definedName name="Page_Name">Settings!$A$2:$A$9</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>Description</t>
   </si>
@@ -55,27 +55,12 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
     <t>TS_002</t>
   </si>
   <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
     <t>Open the Browser</t>
   </si>
   <si>
-    <t>Login_01</t>
-  </si>
-  <si>
     <t>LogIn_01</t>
   </si>
   <si>
@@ -85,9 +70,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -136,15 +118,9 @@
     <t>waitFor</t>
   </si>
   <si>
-    <t>testuser_3</t>
-  </si>
-  <si>
     <t>LogIn_02</t>
   </si>
   <si>
-    <t>Login_02</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -163,19 +139,58 @@
     <t>hybrid testing</t>
   </si>
   <si>
+    <t>Firefox</t>
+  </si>
+  <si>
     <t>TS_004</t>
   </si>
   <si>
-    <t>Close the Browser</t>
-  </si>
-  <si>
-    <t>Firefox</t>
+    <t>Check title</t>
+  </si>
+  <si>
+    <t>checkByXPath</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>Hybrid testing - Wikipedia, the free encyclopedia</t>
+  </si>
+  <si>
     <t>IE</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Test Data ID</t>
+  </si>
+  <si>
+    <t>Test Data Value</t>
+  </si>
+  <si>
+    <t>log in to app</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>loginUrl</t>
+  </si>
+  <si>
+    <t>https://appsecgateway-extqa.corp.erac.com/AppSecGateway_WAR/logon/logon.do?url=https://rpm-uat/rpm/postLogon.action&amp;staticId=199865468&amp;defaultPage=true&amp;internationalize=true&amp;version=2</t>
+  </si>
+  <si>
+    <t>test_user1</t>
+  </si>
+  <si>
+    <t>Browsers</t>
   </si>
 </sst>
 </file>
@@ -572,7 +587,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,32 +608,32 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -630,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,66 +658,58 @@
     <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="5" width="19.140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="str">
-        <f>'Test Data'!D3</f>
-        <v>Chrome</v>
-      </c>
-      <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -713,69 +720,136 @@
         <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -789,204 +863,176 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>